--- a/Data/employed_in_economic_activity.xlsx
+++ b/Data/employed_in_economic_activity.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22380" windowHeight="9940"/>
+    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="еmployed in activities" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Employed in economic activities</t>
   </si>
@@ -46,13 +34,25 @@
   </si>
   <si>
     <t>Data is taken from http://www.ukrstat.gov.ua/Demographic and social statistics / Labor Market/ Employment and unemployment/  Particular link is not available. Selection must be done by a user to select necessary information in the working area/</t>
+  </si>
+  <si>
+    <t>Data for "Population of able-bodied age" is taken from http://www.ukrstat.gov.ua/Demographic and social statistics / Labor Market/ Employment and unemployment/  Particular link is not available. Selection must be done by a user to select necessary information in the working area/</t>
+  </si>
+  <si>
+    <t>Data for "Employed in economic activities" is taken:</t>
+  </si>
+  <si>
+    <t>for 1990 year -  from Agrarian economy and market. Ivanov R, Dusanovsky S, Bilan Є. - Ternopil: "Zbruch", 2003.. - 305 pages. http://buklib.net/books/31118/).</t>
+  </si>
+  <si>
+    <t>for 2015 year -   from http://www.ukrstat.gov.ua/Demographic and social statistics / Labor Market/ Employment and unemployment/ Employed population by economic activities. . Particular link is not available. Selection must be done by a user to select necessary information in the working area/.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,18 +91,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -140,14 +135,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -174,15 +169,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -209,10 +203,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,19 +378,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -408,7 +401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -419,7 +412,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -430,7 +423,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -441,7 +434,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -458,21 +451,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/employed_in_economic_activity.xlsx
+++ b/Data/employed_in_economic_activity.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="22380" windowHeight="9940" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="еmployed in activities" sheetId="1" r:id="rId1"/>
+    <sheet name="employed in activities" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,8 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,13 +103,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,14 +152,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -169,14 +186,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -203,9 +221,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,19 +397,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -401,7 +420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -412,7 +431,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -423,7 +442,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1990</v>
       </c>
@@ -434,7 +453,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -451,36 +470,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>9</v>
       </c>
@@ -488,16 +507,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>